--- a/forecast_summary_B0CN76TH9S.xlsx
+++ b/forecast_summary_B0CN76TH9S.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>-2.703258392779085</v>
       </c>
       <c r="D2" t="n">
-        <v>34.34295254810836</v>
+        <v>32.22118198675595</v>
       </c>
       <c r="E2" t="n">
         <v>81</v>
@@ -511,6 +516,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-2.428857933402754</v>
       </c>
       <c r="D3" t="n">
-        <v>33.40866322078045</v>
+        <v>32.67438630585212</v>
       </c>
       <c r="E3" t="n">
         <v>80</v>
@@ -547,6 +555,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>-4.315203887517796</v>
       </c>
       <c r="D4" t="n">
-        <v>30.44963097539696</v>
+        <v>34.45973482556311</v>
       </c>
       <c r="E4" t="n">
         <v>72</v>
@@ -583,6 +594,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>-7.342583505038734</v>
       </c>
       <c r="D5" t="n">
-        <v>26.37374892931067</v>
+        <v>28.04605853851726</v>
       </c>
       <c r="E5" t="n">
         <v>68</v>
@@ -619,6 +633,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>-8.046239613995795</v>
       </c>
       <c r="D6" t="n">
-        <v>28.18096585211244</v>
+        <v>29.49363344419717</v>
       </c>
       <c r="E6" t="n">
         <v>75</v>
@@ -655,6 +672,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>-8.863935138387475</v>
       </c>
       <c r="D7" t="n">
-        <v>26.66568079201418</v>
+        <v>24.40203088824339</v>
       </c>
       <c r="E7" t="n">
         <v>83</v>
@@ -691,6 +711,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-16.84723847902293</v>
       </c>
       <c r="D8" t="n">
-        <v>19.12158164047604</v>
+        <v>16.13664348794468</v>
       </c>
       <c r="E8" t="n">
         <v>81</v>
@@ -727,6 +750,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-31.84709787087203</v>
       </c>
       <c r="D9" t="n">
-        <v>2.186574858901923</v>
+        <v>5.168757365736774</v>
       </c>
       <c r="E9" t="n">
         <v>84</v>
@@ -763,6 +789,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-42.11061167530605</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.350592124354832</v>
+        <v>-5.92702427961437</v>
       </c>
       <c r="E10" t="n">
         <v>82</v>
@@ -799,6 +828,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-36.99392435369371</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.36597456998676</v>
+        <v>0.6396536911774795</v>
       </c>
       <c r="E11" t="n">
         <v>79</v>
@@ -835,6 +867,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-21.06442014925773</v>
       </c>
       <c r="D12" t="n">
-        <v>12.5073418832106</v>
+        <v>15.10929426093281</v>
       </c>
       <c r="E12" t="n">
         <v>85</v>
@@ -871,6 +906,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>-9.256849906105094</v>
       </c>
       <c r="D13" t="n">
-        <v>22.46737440806746</v>
+        <v>25.62268165970398</v>
       </c>
       <c r="E13" t="n">
         <v>86</v>
@@ -907,6 +945,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-8.395234176890577</v>
       </c>
       <c r="D14" t="n">
-        <v>25.67863476341334</v>
+        <v>25.68262876380584</v>
       </c>
       <c r="E14" t="n">
         <v>84</v>
@@ -943,6 +984,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-10.32205384177078</v>
       </c>
       <c r="D15" t="n">
-        <v>23.18599736795461</v>
+        <v>21.74290960496334</v>
       </c>
       <c r="E15" t="n">
         <v>83</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>-5.862679976080526</v>
       </c>
       <c r="D16" t="n">
-        <v>30.40366985120531</v>
+        <v>29.95032250322242</v>
       </c>
       <c r="E16" t="n">
         <v>86</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
         <v>1.340152803323549</v>
       </c>
       <c r="D17" t="n">
-        <v>36.79423952117943</v>
+        <v>36.3450826081524</v>
       </c>
       <c r="E17" t="n">
         <v>84</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>1.766105491610538</v>
       </c>
       <c r="D18" t="n">
-        <v>35.9644354727743</v>
+        <v>35.78352646900551</v>
       </c>
       <c r="E18" t="n">
         <v>83</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
         <v>-3.785060610519261</v>
       </c>
       <c r="D19" t="n">
-        <v>28.98182111335066</v>
+        <v>31.94618791111132</v>
       </c>
       <c r="E19" t="n">
         <v>82</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>-6.290651668703248</v>
       </c>
       <c r="D20" t="n">
-        <v>31.15865371467105</v>
+        <v>30.2320974143659</v>
       </c>
       <c r="E20" t="n">
         <v>85</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>-8.598063696712259</v>
       </c>
       <c r="D21" t="n">
-        <v>30.617769036653</v>
+        <v>27.43393165785534</v>
       </c>
       <c r="E21" t="n">
         <v>85</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>X670E AORUS PRO X</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
     </row>
